--- a/patient_data/patient_83.xlsx
+++ b/patient_data/patient_83.xlsx
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1490,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
